--- a/signature_data/UserDirectory.xlsx
+++ b/signature_data/UserDirectory.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Jim\IT\SignatureAutomation\signature_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Jim\OneDrive\Development\Scripts\Set-OutlookSignature\signature_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -53,9 +53,6 @@
     <t>Department</t>
   </si>
   <si>
-    <t>Nodus</t>
-  </si>
-  <si>
     <t>Company</t>
   </si>
   <si>
@@ -81,6 +78,9 @@
   </si>
   <si>
     <t>ckent</t>
+  </si>
+  <si>
+    <t>Editorial</t>
   </si>
 </sst>
 </file>
@@ -421,7 +421,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,36 +466,36 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="J2" t="s">
         <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
